--- a/BP_Budget Previsionnel/BM_Budget Massique/Budget massique_V4.2.xlsx
+++ b/BP_Budget Previsionnel/BM_Budget Massique/Budget massique_V4.2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC5688B-9098-44E2-8363-8179442DD9E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F8B233-00DE-47A5-98D5-8722149990D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +278,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEA11EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -454,6 +460,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40 % - Accent2" xfId="1" builtinId="35"/>
@@ -521,6 +530,15 @@
             <a:r>
               <a:rPr lang="en-US" b="0" baseline="0"/>
               <a:t>mesurée</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0" baseline="0"/>
+              <a:t>205kg</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="0"/>
           </a:p>
@@ -741,7 +759,7 @@
                   <c:v>62.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1760,6 +1778,381 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" b="1"/>
+              <a:t>SEISM</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" b="0"/>
+              <a:t>10,6kg</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="53000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$48:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Batterie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Faisceau électrique</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shifter</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Télémétrie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tableau de bord</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$48:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A237-4824-8DA7-A04B0D45C05E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1800,6 +2193,15 @@
             <a:r>
               <a:rPr lang="en-US" b="0"/>
               <a:t>10'' sans aéro</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>181kg</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2010,13 +2412,13 @@
                   <c:v>73.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.84</c:v>
+                  <c:v>49.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>46.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10.595000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,6 +2563,25 @@
             <a:r>
               <a:rPr lang="en-US" b="0"/>
               <a:t>10'' avec aéro</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>199kg</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2325,13 +2746,13 @@
                   <c:v>73.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.84</c:v>
+                  <c:v>65.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>46.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10.595000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2449,6 +2870,15 @@
             <a:r>
               <a:rPr lang="en-US" b="0"/>
               <a:t>13'' sans aéro</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>195kg</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2659,13 +3089,13 @@
                   <c:v>73.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.84</c:v>
+                  <c:v>49.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10.595000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,6 +3240,15 @@
             <a:r>
               <a:rPr lang="en-US" b="0"/>
               <a:t>13'' avec aéro</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>213kg</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3020,13 +3459,13 @@
                   <c:v>73.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.84</c:v>
+                  <c:v>65.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10.595000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4300,7 +4739,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -4852,7 +5291,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -5031,6 +5470,12 @@
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
@@ -5738,6 +6183,525 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10822,6 +11786,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>20781</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>117762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>235526</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>124689</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Graphique 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA482DED-F7DB-4B6F-8799-5298541EFB84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11090,8 +12090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11330,10 +12330,10 @@
         <v>37</v>
       </c>
       <c r="E19" s="6">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="F19" s="6">
-        <v>35</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11347,8 +12347,12 @@
         <v>3</v>
       </c>
       <c r="D20" s="27"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="6">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
@@ -11368,11 +12372,11 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>35.5</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" ref="F21" si="2">F19+F20</f>
+        <v>35.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11526,20 +12530,20 @@
         <v>63.37</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" ref="C29:F29" si="2">SUM(C21:C28)</f>
+        <f t="shared" ref="C29:F29" si="3">SUM(C21:C28)</f>
         <v>48.24</v>
       </c>
       <c r="D29" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52.162000000000006</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="2"/>
-        <v>46.84</v>
+        <f t="shared" si="3"/>
+        <v>49.34</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="2"/>
-        <v>64.84</v>
+        <f t="shared" si="3"/>
+        <v>65.34</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -11735,15 +12739,15 @@
         <v>59.7</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" ref="D42:F42" si="3">SUM(D35:D41)</f>
+        <f t="shared" ref="D42:F42" si="4">SUM(D35:D41)</f>
         <v>62.599999999999994</v>
       </c>
       <c r="E42" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60.1</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46.2</v>
       </c>
     </row>
@@ -11792,7 +12796,9 @@
         <v>1.3</v>
       </c>
       <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="E48" s="28">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
@@ -11805,7 +12811,9 @@
         <v>5.2539999999999996</v>
       </c>
       <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="E49" s="28">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
@@ -11818,7 +12826,9 @@
         <v>2</v>
       </c>
       <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
+      <c r="E50" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
@@ -11831,7 +12841,9 @@
         <v>0.79500000000000004</v>
       </c>
       <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
+      <c r="E51" s="12">
+        <v>0.79500000000000004</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
@@ -11844,7 +12856,9 @@
         <v>0.94199999999999995</v>
       </c>
       <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
+      <c r="E52" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
@@ -11857,10 +12871,11 @@
         <v>10.291</v>
       </c>
       <c r="D53" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" s="8">
-        <v>10</v>
+        <f>SUM(E48:E52)</f>
+        <v>10.595000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -11979,19 +12994,19 @@
       </c>
       <c r="E61" s="6">
         <f>E29</f>
-        <v>46.84</v>
+        <v>49.34</v>
       </c>
       <c r="F61" s="6">
         <f>F29</f>
-        <v>64.84</v>
+        <v>65.34</v>
       </c>
       <c r="G61" s="6">
         <f>E29</f>
-        <v>46.84</v>
+        <v>49.34</v>
       </c>
       <c r="H61" s="6">
         <f>F29</f>
-        <v>64.84</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12037,23 +13052,23 @@
       </c>
       <c r="D63" s="6">
         <f>D53</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" s="6">
         <f>$E53</f>
-        <v>10</v>
+        <v>10.595000000000001</v>
       </c>
       <c r="F63" s="6">
         <f>$E53</f>
-        <v>10</v>
+        <v>10.595000000000001</v>
       </c>
       <c r="G63" s="6">
         <f>$E53</f>
-        <v>10</v>
+        <v>10.595000000000001</v>
       </c>
       <c r="H63" s="6">
         <f>$E53</f>
-        <v>10</v>
+        <v>10.595000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12091,28 +13106,28 @@
         <v>237.6506</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" ref="C65:H65" si="4">SUM(C60:C64)</f>
+        <f t="shared" ref="C65:H65" si="5">SUM(C60:C64)</f>
         <v>206.00400000000002</v>
       </c>
       <c r="D65" s="8">
-        <f t="shared" si="4"/>
-        <v>205.41900000000001</v>
+        <f t="shared" si="5"/>
+        <v>204.41900000000001</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" si="4"/>
-        <v>180.94</v>
+        <f t="shared" si="5"/>
+        <v>184.035</v>
       </c>
       <c r="F65" s="8">
-        <f t="shared" si="4"/>
-        <v>198.94</v>
+        <f t="shared" si="5"/>
+        <v>200.035</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" si="4"/>
-        <v>194.84</v>
+        <f t="shared" si="5"/>
+        <v>197.935</v>
       </c>
       <c r="H65" s="8">
-        <f t="shared" si="4"/>
-        <v>212.84</v>
+        <f t="shared" si="5"/>
+        <v>213.935</v>
       </c>
     </row>
   </sheetData>
